--- a/UNIDADES.xlsx
+++ b/UNIDADES.xlsx
@@ -544,8 +544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E50" workbookViewId="0">
-      <selection activeCell="K59" sqref="K59"/>
+    <sheetView tabSelected="1" topLeftCell="G44" workbookViewId="0">
+      <selection activeCell="M46" sqref="M46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,13 +1171,27 @@
       <c r="J48" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="49" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <f>SQRT(3*M46/(E17+1))</f>
+        <v>1.245546651758387E-3</v>
+      </c>
+      <c r="N48">
+        <f>M48/2</f>
+        <v>6.227733258791935E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="51" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:13" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <f>SQRT(M46*3/(E17+1))</f>
+        <v>1.245546651758387E-3</v>
+      </c>
+    </row>
+    <row r="51" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J51" t="s">
         <v>62</v>
       </c>
@@ -1186,24 +1200,24 @@
         <v>0.69992035364479355</v>
       </c>
     </row>
-    <row r="52" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:13" x14ac:dyDescent="0.25">
       <c r="K52" s="1">
         <f>F12*K51</f>
         <v>1531209.6426745614</v>
       </c>
     </row>
-    <row r="54" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:13" x14ac:dyDescent="0.25">
       <c r="K54" s="1">
         <f>518/F12</f>
         <v>2.367792972846764E-4</v>
       </c>
     </row>
-    <row r="55" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:13" x14ac:dyDescent="0.25">
       <c r="K55">
         <v>2.367792972846764E-4</v>
       </c>
     </row>
-    <row r="57" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J57" t="s">
         <v>63</v>
       </c>
@@ -1211,7 +1225,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J58" s="1">
         <f>(3/2)*F8*M45</f>
         <v>6.2129272841542942E-21</v>
@@ -1221,7 +1235,7 @@
         <v>1.4250669401444016E-3</v>
       </c>
     </row>
-    <row r="59" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J59">
         <f>SQRT((2*J58)/(F17+F5))</f>
         <v>2724.8715206923666</v>
@@ -1231,7 +1245,7 @@
         <v>1.245546651758387E-3</v>
       </c>
     </row>
-    <row r="60" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:13" x14ac:dyDescent="0.25">
       <c r="K60" s="1">
         <f>K59*F12</f>
         <v>2724.8715280843912</v>

--- a/UNIDADES.xlsx
+++ b/UNIDADES.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
   <si>
     <t>Comprimento</t>
   </si>
@@ -220,19 +220,127 @@
   </si>
   <si>
     <t>T (minha)</t>
+  </si>
+  <si>
+    <t>DEFININDO MOVIMENTO ZeeZ</t>
+  </si>
+  <si>
+    <t>alfa</t>
+  </si>
+  <si>
+    <t>beta</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>vel</t>
+  </si>
+  <si>
+    <t>v centripeta</t>
+  </si>
+  <si>
+    <t>E(H2)</t>
+  </si>
+  <si>
+    <t>Energia do Bohr</t>
+  </si>
+  <si>
+    <t>Conversao hartree-eV</t>
+  </si>
+  <si>
+    <t>1Eh = x eV</t>
+  </si>
+  <si>
+    <t>eV</t>
+  </si>
+  <si>
+    <t>Eh2</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Hartree</t>
+  </si>
+  <si>
+    <t>E(H2) deveria:</t>
+  </si>
+  <si>
+    <t>r para essa energia</t>
+  </si>
+  <si>
+    <t>primeiro estado exitado</t>
+  </si>
+  <si>
+    <t>2 eletrons pra cima</t>
+  </si>
+  <si>
+    <t>estado fundamental</t>
+  </si>
+  <si>
+    <t>Perspectivas</t>
+  </si>
+  <si>
+    <t>Corrigir a energia total com a energia de emparelhamento</t>
+  </si>
+  <si>
+    <t>Vibração</t>
+  </si>
+  <si>
+    <t>seg-1</t>
+  </si>
+  <si>
+    <t>1 vibracao completa</t>
+  </si>
+  <si>
+    <t>Velocidade da luz</t>
+  </si>
+  <si>
+    <t>bohr/tbohr</t>
+  </si>
+  <si>
+    <t>tbohr</t>
+  </si>
+  <si>
+    <t>[1]Fundamental Vibration of Molecular Hydrogen</t>
+  </si>
+  <si>
+    <t>Vibracao we[1]</t>
+  </si>
+  <si>
+    <t>cm-1</t>
+  </si>
+  <si>
+    <t>* não multipliquei por 2pi</t>
+  </si>
+  <si>
+    <t>Nosso resultado</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -255,13 +363,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -542,10 +651,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:T60"/>
+  <dimension ref="C2:T100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G44" workbookViewId="0">
-      <selection activeCell="M46" sqref="M46"/>
+    <sheetView tabSelected="1" topLeftCell="D84" workbookViewId="0">
+      <selection activeCell="J102" sqref="J102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,6 +669,12 @@
     <col min="14" max="14" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="F2" s="1">
+        <f>1.29*F4</f>
+        <v>6.8263860193199998E-11</v>
+      </c>
+    </row>
     <row r="3" spans="3:20" x14ac:dyDescent="0.25">
       <c r="J3" t="s">
         <v>38</v>
@@ -653,18 +768,18 @@
         <v>34</v>
       </c>
       <c r="K7" s="1">
-        <f>1/(E17*(K17-(1-K17)))</f>
+        <f>1/(E18*(K17-(1-K17)))</f>
         <v>-5.4521054200522062E-4</v>
       </c>
       <c r="L7" t="s">
         <v>42</v>
       </c>
       <c r="N7" s="1">
-        <f>K7*K17*E17</f>
+        <f>K7*K17*E18</f>
         <v>-5.4491377269922628E-4</v>
       </c>
       <c r="P7" s="1">
-        <f>E17/(1+E17)</f>
+        <f>E18/(1+E18)</f>
         <v>0.99945567944283753</v>
       </c>
       <c r="Q7" s="1"/>
@@ -686,7 +801,7 @@
         <v>35</v>
       </c>
       <c r="K8" s="1">
-        <f>0.5*E17*K7*K7</f>
+        <f>0.5*E18*K7*K7</f>
         <v>2.7290236373596973E-4</v>
       </c>
     </row>
@@ -713,7 +828,7 @@
         <v>41</v>
       </c>
       <c r="P9" s="1">
-        <f>(-0.5)/(1+1/E17)</f>
+        <f>(-0.5)/(1+1/E18)</f>
         <v>-0.49972783972141877</v>
       </c>
     </row>
@@ -737,7 +852,7 @@
         <v>34</v>
       </c>
       <c r="K10" s="1">
-        <f>-E17*K7</f>
+        <f>-E18*K7</f>
         <v>1.0010898275453983</v>
       </c>
       <c r="N10" s="1">
@@ -825,11 +940,26 @@
       </c>
     </row>
     <row r="14" spans="3:20" x14ac:dyDescent="0.25">
+      <c r="C14" t="s">
+        <v>77</v>
+      </c>
+      <c r="D14" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>27.211384523</v>
+      </c>
+      <c r="G14" t="s">
+        <v>79</v>
+      </c>
       <c r="J14" t="s">
         <v>31</v>
       </c>
       <c r="K14" s="1">
-        <f>E17*K7+K10</f>
+        <f>E18*K7+K10</f>
         <v>0</v>
       </c>
       <c r="R14" s="1"/>
@@ -841,7 +971,21 @@
       <c r="P15" s="1"/>
     </row>
     <row r="16" spans="3:20" x14ac:dyDescent="0.25">
-      <c r="F16" s="1"/>
+      <c r="C16" t="s">
+        <v>93</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>299792458</v>
+      </c>
+      <c r="G16" t="s">
+        <v>25</v>
+      </c>
       <c r="J16" t="s">
         <v>45</v>
       </c>
@@ -854,14 +998,17 @@
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
-        <v>29</v>
-      </c>
-      <c r="E17" s="1">
-        <f>F17/F5</f>
-        <v>1836.1527344344941</v>
+        <v>93</v>
+      </c>
+      <c r="D17" t="s">
+        <v>94</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="F17" s="1">
-        <v>1.6726217770000001E-27</v>
+        <f>F16*(F11/F4)</f>
+        <v>137.03599910591774</v>
       </c>
       <c r="J17" t="s">
         <v>46</v>
@@ -875,6 +1022,16 @@
       <c r="P17" s="1"/>
     </row>
     <row r="18" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E18" s="1">
+        <f>F18/F5</f>
+        <v>1836.1527344344941</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1.6726217770000001E-27</v>
+      </c>
       <c r="J18" t="s">
         <v>48</v>
       </c>
@@ -892,7 +1049,15 @@
         <v>-0.49863667622882635</v>
       </c>
     </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="E21" s="6"/>
+      <c r="F21" s="1"/>
+    </row>
     <row r="22" spans="3:16" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
       <c r="H22" s="1"/>
       <c r="J22" t="s">
         <v>51</v>
@@ -952,14 +1117,14 @@
         <v>34</v>
       </c>
       <c r="K27" s="1">
-        <f>-K30/E17</f>
+        <f>-K30/E18</f>
         <v>-5.4461700339323031E-4</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="N27" s="1">
-        <f>E17*K37*K27</f>
+        <f>E18*K37*K27</f>
         <v>-5.4432055716250401E-4</v>
       </c>
       <c r="P27" s="1">
@@ -977,7 +1142,7 @@
         <v>35</v>
       </c>
       <c r="K28" s="1">
-        <f>0.5*E17*K27*K27</f>
+        <f>0.5*E18*K27*K27</f>
         <v>2.7230850169661516E-4</v>
       </c>
     </row>
@@ -1172,7 +1337,7 @@
         <v>59</v>
       </c>
       <c r="M48">
-        <f>SQRT(3*M46/(E17+1))</f>
+        <f>SQRT(3*M46/(E18+1))</f>
         <v>1.245546651758387E-3</v>
       </c>
       <c r="N48">
@@ -1187,7 +1352,7 @@
     </row>
     <row r="50" spans="10:13" x14ac:dyDescent="0.25">
       <c r="M50">
-        <f>SQRT(M46*3/(E17+1))</f>
+        <f>SQRT(M46*3/(E18+1))</f>
         <v>1.245546651758387E-3</v>
       </c>
     </row>
@@ -1196,7 +1361,7 @@
         <v>62</v>
       </c>
       <c r="K51">
-        <f>SQRT((3*M45)/(E17+1))</f>
+        <f>SQRT((3*M45)/(E18+1))</f>
         <v>0.69992035364479355</v>
       </c>
     </row>
@@ -1237,11 +1402,11 @@
     </row>
     <row r="59" spans="10:13" x14ac:dyDescent="0.25">
       <c r="J59">
-        <f>SQRT((2*J58)/(F17+F5))</f>
+        <f>SQRT((2*J58)/(F18+F5))</f>
         <v>2724.8715206923666</v>
       </c>
       <c r="K59">
-        <f>SQRT((2*K58)/(1+E17))</f>
+        <f>SQRT((2*K58)/(1+E18))</f>
         <v>1.245546651758387E-3</v>
       </c>
     </row>
@@ -1249,6 +1414,243 @@
       <c r="K60" s="1">
         <f>K59*F12</f>
         <v>2724.8715280843912</v>
+      </c>
+    </row>
+    <row r="65" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J65" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="67" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J67" t="s">
+        <v>68</v>
+      </c>
+      <c r="K67">
+        <f>K68*SQRT(3)</f>
+        <v>0.89321721666822818</v>
+      </c>
+      <c r="M67" t="s">
+        <v>71</v>
+      </c>
+      <c r="N67">
+        <f>K68/2</f>
+        <v>0.25784960024410492</v>
+      </c>
+    </row>
+    <row r="68" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J68" t="s">
+        <v>70</v>
+      </c>
+      <c r="K68">
+        <v>0.51569920048820983</v>
+      </c>
+      <c r="M68" t="s">
+        <v>72</v>
+      </c>
+      <c r="N68">
+        <f>SQRT(3)*N67</f>
+        <v>0.44660860833411409</v>
+      </c>
+    </row>
+    <row r="69" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="N69">
+        <v>0.95262794416288255</v>
+      </c>
+    </row>
+    <row r="71" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J71" t="s">
+        <v>69</v>
+      </c>
+      <c r="K71">
+        <f>SQRT((1/K67)*((4/((K67*K67+K68*K68)^(3/2)))-1/(2*K67*K67*K67)))</f>
+        <v>1.81550085966408</v>
+      </c>
+      <c r="L71">
+        <v>1.5961143276988841</v>
+      </c>
+    </row>
+    <row r="72" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J72" t="s">
+        <v>73</v>
+      </c>
+      <c r="K72">
+        <f>K71*K67</f>
+        <v>1.621636624727925</v>
+      </c>
+    </row>
+    <row r="74" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J74" t="s">
+        <v>74</v>
+      </c>
+      <c r="K74">
+        <f>SQRT((9 - SQRT(3))/(12*K68))</f>
+        <v>1.0837200023131948</v>
+      </c>
+    </row>
+    <row r="77" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J77" t="s">
+        <v>75</v>
+      </c>
+      <c r="K77">
+        <f>(3-9*SQRT(3))/(12*SQRT(3)*K68)</f>
+        <v>-1.1744490434137109</v>
+      </c>
+      <c r="M77" t="s">
+        <v>76</v>
+      </c>
+      <c r="P77">
+        <v>4.7469999999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="J79" t="s">
+        <v>83</v>
+      </c>
+      <c r="K79">
+        <f>-N80-1</f>
+        <v>-1.1744490434137107</v>
+      </c>
+      <c r="M79" t="s">
+        <v>80</v>
+      </c>
+      <c r="N79">
+        <v>4.7469999999999999</v>
+      </c>
+      <c r="O79" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="M80" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="N80">
+        <f>N79/F14</f>
+        <v>0.17444904341371062</v>
+      </c>
+      <c r="O80" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="81" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J81" t="s">
+        <v>84</v>
+      </c>
+      <c r="K81">
+        <f>(3-9*SQRT(3))/(12*SQRT(3)*K79)</f>
+        <v>0.51569920048820983</v>
+      </c>
+    </row>
+    <row r="83" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="N83">
+        <f>N79-2.732</f>
+        <v>2.0149999999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J87" t="s">
+        <v>85</v>
+      </c>
+      <c r="K87">
+        <v>-0.78</v>
+      </c>
+      <c r="L87" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J88" t="s">
+        <v>87</v>
+      </c>
+      <c r="K88">
+        <v>-1.18</v>
+      </c>
+    </row>
+    <row r="89" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="K89">
+        <f>K88-K87</f>
+        <v>-0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="90" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J90" t="s">
+        <v>88</v>
+      </c>
+      <c r="K90" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J92" t="s">
+        <v>97</v>
+      </c>
+      <c r="K92">
+        <v>4401</v>
+      </c>
+      <c r="L92" t="s">
+        <v>98</v>
+      </c>
+      <c r="M92" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="93" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J93" t="s">
+        <v>90</v>
+      </c>
+      <c r="K93">
+        <f>K92*100*F16</f>
+        <v>131938660765800</v>
+      </c>
+      <c r="L93" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="K94" s="1">
+        <f>K93*F11</f>
+        <v>3.1914435858645378E-3</v>
+      </c>
+      <c r="M94" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="J95" t="s">
+        <v>92</v>
+      </c>
+      <c r="K95" s="1">
+        <f>1/K94</f>
+        <v>313.33782756780505</v>
+      </c>
+    </row>
+    <row r="96" spans="10:14" x14ac:dyDescent="0.25">
+      <c r="K96">
+        <v>313.33782756780505</v>
+      </c>
+      <c r="L96" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J98" t="s">
+        <v>100</v>
+      </c>
+      <c r="K98">
+        <f>1000*0.01</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="99" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K99">
+        <f>K98*25</f>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="100" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K100">
+        <f>K99/K96</f>
+        <v>0.79786089646613445</v>
       </c>
     </row>
   </sheetData>

--- a/UNIDADES.xlsx
+++ b/UNIDADES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FCB9BDD9-AE3A-46CA-81C2-C84F52E0594F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="102">
   <si>
     <t>Comprimento</t>
   </si>
@@ -322,6 +323,9 @@
   </si>
   <si>
     <t>Nosso resultado</t>
+  </si>
+  <si>
+    <t>Calculo a partir da energia</t>
   </si>
 </sst>
 </file>
@@ -651,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:T100"/>
+  <dimension ref="C2:U100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D84" workbookViewId="0">
-      <selection activeCell="J102" sqref="J102"/>
+    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
+      <selection activeCell="U70" sqref="U70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1416,12 +1420,12 @@
         <v>2724.8715280843912</v>
       </c>
     </row>
-    <row r="65" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="65" spans="10:21" x14ac:dyDescent="0.25">
       <c r="J65" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="67" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="67" spans="10:21" x14ac:dyDescent="0.25">
       <c r="J67" t="s">
         <v>68</v>
       </c>
@@ -1436,8 +1440,11 @@
         <f>K68/2</f>
         <v>0.25784960024410492</v>
       </c>
-    </row>
-    <row r="68" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="S67" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="68" spans="10:21" x14ac:dyDescent="0.25">
       <c r="J68" t="s">
         <v>70</v>
       </c>
@@ -1451,13 +1458,26 @@
         <f>SQRT(3)*N67</f>
         <v>0.44660860833411409</v>
       </c>
-    </row>
-    <row r="69" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="S68" s="3"/>
+    </row>
+    <row r="69" spans="10:21" x14ac:dyDescent="0.25">
       <c r="N69">
         <v>0.95262794416288255</v>
       </c>
-    </row>
-    <row r="71" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="U69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="10:21" x14ac:dyDescent="0.25">
+      <c r="S70">
+        <f>(3-9*SQRT(3))/(12*SQRT(3)*U70)</f>
+        <v>0.51569920048821016</v>
+      </c>
+      <c r="U70">
+        <v>-1.17444904341371</v>
+      </c>
+    </row>
+    <row r="71" spans="10:21" x14ac:dyDescent="0.25">
       <c r="J71" t="s">
         <v>69</v>
       </c>
@@ -1469,7 +1489,7 @@
         <v>1.5961143276988841</v>
       </c>
     </row>
-    <row r="72" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="72" spans="10:21" x14ac:dyDescent="0.25">
       <c r="J72" t="s">
         <v>73</v>
       </c>
@@ -1477,8 +1497,12 @@
         <f>K71*K67</f>
         <v>1.621636624727925</v>
       </c>
-    </row>
-    <row r="74" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="S72">
+        <f>S70*SQRT(3)</f>
+        <v>0.89321721666822873</v>
+      </c>
+    </row>
+    <row r="74" spans="10:21" x14ac:dyDescent="0.25">
       <c r="J74" t="s">
         <v>74</v>
       </c>
@@ -1486,8 +1510,12 @@
         <f>SQRT((9 - SQRT(3))/(12*K68))</f>
         <v>1.0837200023131948</v>
       </c>
-    </row>
-    <row r="77" spans="10:16" x14ac:dyDescent="0.25">
+      <c r="S74">
+        <f>SQRT((9 - SQRT(3))/(12*S70))</f>
+        <v>1.0837200023131945</v>
+      </c>
+    </row>
+    <row r="77" spans="10:21" x14ac:dyDescent="0.25">
       <c r="J77" t="s">
         <v>75</v>
       </c>
@@ -1502,7 +1530,7 @@
         <v>4.7469999999999999</v>
       </c>
     </row>
-    <row r="79" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="79" spans="10:21" x14ac:dyDescent="0.25">
       <c r="J79" t="s">
         <v>83</v>
       </c>
@@ -1520,7 +1548,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="10:16" x14ac:dyDescent="0.25">
+    <row r="80" spans="10:21" x14ac:dyDescent="0.25">
       <c r="M80" s="2" t="s">
         <v>81</v>
       </c>

--- a/UNIDADES.xlsx
+++ b/UNIDADES.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FCB9BDD9-AE3A-46CA-81C2-C84F52E0594F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391A7CCB-2B5D-4EB1-BEA7-39D933A6649C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="104">
   <si>
     <t>Comprimento</t>
   </si>
@@ -326,6 +326,12 @@
   </si>
   <si>
     <t>Calculo a partir da energia</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>0.075nm</t>
   </si>
 </sst>
 </file>
@@ -655,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:U100"/>
+  <dimension ref="C2:U105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D64" workbookViewId="0">
-      <selection activeCell="U70" sqref="U70"/>
+    <sheetView tabSelected="1" topLeftCell="E49" workbookViewId="0">
+      <selection activeCell="N63" sqref="N63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1349,18 +1355,18 @@
         <v>6.227733258791935E-4</v>
       </c>
     </row>
-    <row r="49" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J49" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="50" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="10:15" x14ac:dyDescent="0.25">
       <c r="M50">
         <f>SQRT(M46*3/(E18+1))</f>
         <v>1.245546651758387E-3</v>
       </c>
     </row>
-    <row r="51" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J51" t="s">
         <v>62</v>
       </c>
@@ -1369,24 +1375,24 @@
         <v>0.69992035364479355</v>
       </c>
     </row>
-    <row r="52" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="10:15" x14ac:dyDescent="0.25">
       <c r="K52" s="1">
         <f>F12*K51</f>
         <v>1531209.6426745614</v>
       </c>
     </row>
-    <row r="54" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="10:15" x14ac:dyDescent="0.25">
       <c r="K54" s="1">
         <f>518/F12</f>
         <v>2.367792972846764E-4</v>
       </c>
     </row>
-    <row r="55" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="10:15" x14ac:dyDescent="0.25">
       <c r="K55">
         <v>2.367792972846764E-4</v>
       </c>
     </row>
-    <row r="57" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J57" t="s">
         <v>63</v>
       </c>
@@ -1394,7 +1400,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="58" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J58" s="1">
         <f>(3/2)*F8*M45</f>
         <v>6.2129272841542942E-21</v>
@@ -1404,7 +1410,7 @@
         <v>1.4250669401444016E-3</v>
       </c>
     </row>
-    <row r="59" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J59">
         <f>SQRT((2*J58)/(F18+F5))</f>
         <v>2724.8715206923666</v>
@@ -1414,11 +1420,14 @@
         <v>1.245546651758387E-3</v>
       </c>
     </row>
-    <row r="60" spans="10:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="10:15" x14ac:dyDescent="0.25">
       <c r="K60" s="1">
         <f>K59*F12</f>
         <v>2724.8715280843912</v>
       </c>
+    </row>
+    <row r="63" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="O63" s="1"/>
     </row>
     <row r="65" spans="10:21" x14ac:dyDescent="0.25">
       <c r="J65" t="s">
@@ -1679,6 +1688,25 @@
       <c r="K100">
         <f>K99/K96</f>
         <v>0.79786089646613445</v>
+      </c>
+    </row>
+    <row r="103" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="J103" t="s">
+        <v>102</v>
+      </c>
+      <c r="K103" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="104" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K104" s="1">
+        <v>7.5E-11</v>
+      </c>
+    </row>
+    <row r="105" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="K105" s="1">
+        <f>K104/F4</f>
+        <v>1.4172945937451924</v>
       </c>
     </row>
   </sheetData>

--- a/UNIDADES.xlsx
+++ b/UNIDADES.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391A7CCB-2B5D-4EB1-BEA7-39D933A6649C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA45EA3-A1BA-454C-A59F-8AAA75A2B142}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -661,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:U105"/>
+  <dimension ref="C2:U106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E49" workbookViewId="0">
-      <selection activeCell="N63" sqref="N63"/>
+    <sheetView tabSelected="1" topLeftCell="E79" workbookViewId="0">
+      <selection activeCell="M98" sqref="M98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1669,7 +1669,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="98" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J98" t="s">
         <v>100</v>
       </c>
@@ -1678,36 +1678,52 @@
         <v>10</v>
       </c>
     </row>
-    <row r="99" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="10:15" x14ac:dyDescent="0.25">
       <c r="K99">
         <f>K98*25</f>
         <v>250</v>
       </c>
     </row>
-    <row r="100" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="10:15" x14ac:dyDescent="0.25">
       <c r="K100">
         <f>K99/K96</f>
         <v>0.79786089646613445</v>
       </c>
     </row>
-    <row r="103" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="10:15" x14ac:dyDescent="0.25">
       <c r="J103" t="s">
         <v>102</v>
       </c>
       <c r="K103" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="104" spans="10:11" x14ac:dyDescent="0.25">
+      <c r="M103">
+        <v>1.4172945937451924</v>
+      </c>
+      <c r="N103">
+        <f>2*M103</f>
+        <v>2.8345891874903848</v>
+      </c>
+      <c r="O103">
+        <f>2*N103</f>
+        <v>5.6691783749807696</v>
+      </c>
+    </row>
+    <row r="104" spans="10:15" x14ac:dyDescent="0.25">
       <c r="K104" s="1">
         <v>7.5E-11</v>
       </c>
     </row>
-    <row r="105" spans="10:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="10:15" x14ac:dyDescent="0.25">
       <c r="K105" s="1">
         <f>K104/F4</f>
         <v>1.4172945937451924</v>
       </c>
+      <c r="O105" s="1"/>
+    </row>
+    <row r="106" spans="10:15" x14ac:dyDescent="0.25">
+      <c r="M106" s="1"/>
+      <c r="N106" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
